--- a/プランナー/青山/進捗表.xlsx
+++ b/プランナー/青山/進捗表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2140059\Desktop\青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2140059\Desktop\aoyama\プランナー\青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,25 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{E729B3C7-E848-4E6B-9A3C-4B33237A494F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>モーションに関しては、
-1.攻撃モーション
-2.移動モーション
-3.待機モーション</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{103A8D6A-F91E-4351-AAD9-CECDBB1694A7}">
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{103A8D6A-F91E-4351-AAD9-CECDBB1694A7}">
       <text>
         <r>
           <rPr>
@@ -280,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{04E515F5-DD60-4D97-8781-A9182B3C3211}">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{04E515F5-DD60-4D97-8781-A9182B3C3211}">
       <text>
         <r>
           <rPr>
@@ -296,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{5596380B-D5DA-45FC-8E2F-661E8A877B05}">
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{5596380B-D5DA-45FC-8E2F-661E8A877B05}">
       <text>
         <r>
           <rPr>
@@ -312,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{D842982B-732A-4111-9CD6-AA7604CCDD31}">
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{D842982B-732A-4111-9CD6-AA7604CCDD31}">
       <text>
         <r>
           <rPr>
@@ -328,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{182ABA86-1279-4041-B977-A5DEB32167FF}">
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{182ABA86-1279-4041-B977-A5DEB32167FF}">
       <text>
         <r>
           <rPr>
@@ -344,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{82EF3801-CC62-45B0-8DD9-34B197FD95D3}">
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{82EF3801-CC62-45B0-8DD9-34B197FD95D3}">
       <text>
         <r>
           <rPr>
@@ -360,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{4EF702BD-AD65-4C4E-99C9-FE2DBFED3601}">
+    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{4EF702BD-AD65-4C4E-99C9-FE2DBFED3601}">
       <text>
         <r>
           <rPr>
@@ -376,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D53" authorId="0" shapeId="0" xr:uid="{3D8B47C1-1ECF-4838-8FCC-B74066E79BD7}">
+    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{C1745FFD-AAAF-49D5-893E-FFB7AF410F18}">
       <text>
         <r>
           <rPr>
@@ -410,25 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{69BD4ACB-D995-4A11-80CF-1F84D51D0E46}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>モーションに関しては、
-1.攻撃モーション
-2.移動モーション
-3.待機モーション</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{A07EF8E5-39B6-491F-8C1D-8E89FC5DF63D}">
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{A07EF8E5-39B6-491F-8C1D-8E89FC5DF63D}">
       <text>
         <r>
           <rPr>
@@ -443,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{4B54FEA1-797C-4DF7-80FE-B4877FE7C9E7}">
+    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{4B54FEA1-797C-4DF7-80FE-B4877FE7C9E7}">
       <text>
         <r>
           <rPr>
@@ -458,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{66BE3216-A0D3-41A5-828C-5E9D54FD1B6D}">
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{66BE3216-A0D3-41A5-828C-5E9D54FD1B6D}">
       <text>
         <r>
           <rPr>
@@ -474,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{32A0DE69-8D9F-455B-8DAB-7870819E90CA}">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{32A0DE69-8D9F-455B-8DAB-7870819E90CA}">
       <text>
         <r>
           <rPr>
@@ -492,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{1E3ADEEC-C292-4E85-BA22-20833B6477A8}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{1E3ADEEC-C292-4E85-BA22-20833B6477A8}">
       <text>
         <r>
           <rPr>
@@ -508,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{609B26EE-44C3-41B2-9B2A-71C40A3D4B9A}">
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{609B26EE-44C3-41B2-9B2A-71C40A3D4B9A}">
       <text>
         <r>
           <rPr>
@@ -525,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{974B0C13-E614-4C9F-B52A-05A59582A18A}">
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{974B0C13-E614-4C9F-B52A-05A59582A18A}">
       <text>
         <r>
           <rPr>
@@ -542,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{77DA1697-B8D5-44A7-8DDE-F740DDC14E6D}">
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{77DA1697-B8D5-44A7-8DDE-F740DDC14E6D}">
       <text>
         <r>
           <rPr>
@@ -558,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{E9919F95-4D84-4B72-AA4E-0747576F06C2}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{E9919F95-4D84-4B72-AA4E-0747576F06C2}">
       <text>
         <r>
           <rPr>
@@ -573,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D82" authorId="0" shapeId="0" xr:uid="{E51C710C-7CB5-4399-8B23-20087F5A98B3}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{E51C710C-7CB5-4399-8B23-20087F5A98B3}">
       <text>
         <r>
           <rPr>
@@ -592,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{E481C1A9-5783-4577-BFD0-9D471C01A523}">
+    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{E481C1A9-5783-4577-BFD0-9D471C01A523}">
       <text>
         <r>
           <rPr>
@@ -612,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{A8F24FDC-0837-450E-9578-C1B934D5437E}">
+    <comment ref="D82" authorId="0" shapeId="0" xr:uid="{A8F24FDC-0837-450E-9578-C1B934D5437E}">
       <text>
         <r>
           <rPr>
@@ -630,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{E702557F-060D-4CC0-B9BB-3FB136129707}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{E702557F-060D-4CC0-B9BB-3FB136129707}">
       <text>
         <r>
           <rPr>
@@ -650,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{A7BCABDE-48BD-4ED5-8A12-B527978310B1}">
+    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{A7BCABDE-48BD-4ED5-8A12-B527978310B1}">
       <text>
         <r>
           <rPr>
@@ -669,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{EF48140B-D336-4BA7-9453-0D3C52A3A168}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{EF48140B-D336-4BA7-9453-0D3C52A3A168}">
       <text>
         <r>
           <rPr>
@@ -687,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{7794C56B-DF0E-495D-B87A-46659E553466}">
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{7794C56B-DF0E-495D-B87A-46659E553466}">
       <text>
         <r>
           <rPr>
@@ -729,12 +693,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{3D8B47C1-1ECF-4838-8FCC-B74066E79BD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>3Dモデルは、
+3Dにする事と、色をつける事をしてください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{E729B3C7-E848-4E6B-9A3C-4B33237A494F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>モーションに関しては、
+1.攻撃モーション
+2.移動モーション
+3.待機モーション</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{69BD4ACB-D995-4A11-80CF-1F84D51D0E46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>モーションに関しては、
+1.攻撃モーション
+2.移動モーション
+3.待機モーション</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="181">
   <si>
     <t>サイトマップ</t>
   </si>
@@ -1251,10 +1267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P：3Dモデル（2）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P：モーション（3Dモデル「1」）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1521,11 +1533,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P：3Dモデル＿（1）</t>
+    <t>１１月までに、上手くいったら体</t>
+  </si>
+  <si>
+    <t>P：3Dモデル（ナイフ＿1）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１１月までに、上手くいったら体</t>
+    <t>P：3Dモデル（ナイフ＿2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（ナイフ＿3）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（フォーク＿1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（フォーク＿2）</t>
+  </si>
+  <si>
+    <t>P：3Dモデル（フォーク＿3）</t>
+  </si>
+  <si>
+    <t>P：モーション（ナイフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：モーション（フォーク）</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1989,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2062,15 +2100,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2108,9 +2137,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2178,9 +2204,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="15" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2284,6 +2307,36 @@
     <xf numFmtId="56" fontId="6" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="31" fillId="3" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="31" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="31" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2297,31 +2350,6 @@
   <dxfs count="25">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2364,6 +2392,31 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -16295,31 +16348,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3968D38F-F116-458B-97E1-A4F5A5771496}" name="テーブル1" displayName="テーブル1" ref="B28:H117" totalsRowShown="0">
-  <autoFilter ref="B28:H117" xr:uid="{E52E9663-BD2C-4744-89D9-CE1463DF218E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3968D38F-F116-458B-97E1-A4F5A5771496}" name="テーブル1" displayName="テーブル1" ref="B28:H115" totalsRowShown="0">
+  <autoFilter ref="B28:H115" xr:uid="{E52E9663-BD2C-4744-89D9-CE1463DF218E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5FB983D2-3846-4804-90A3-95DB3059BD9B}" name="メイン階層"/>
     <tableColumn id="2" xr3:uid="{F5C484FF-9C7A-472F-9B95-6DE3638EFF53}" name="サブ階層"/>
-    <tableColumn id="3" xr3:uid="{361D4FAC-86DC-4959-A627-87CF43518141}" name="内容" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{361D4FAC-86DC-4959-A627-87CF43518141}" name="内容" dataDxfId="17"/>
     <tableColumn id="8" xr3:uid="{09C64AF6-F337-42DE-ADE6-C3BC6A83E105}" name="参照リンク"/>
-    <tableColumn id="4" xr3:uid="{5C915606-742B-4308-83D2-4C4B49818E9F}" name="担当者" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DCA4F3DD-10AA-409D-B188-096C931AF95A}" name="確認者（名前・日付）" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7D45CE56-74AE-4451-8304-78DBE28AC7BC}" name="締切日" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{5C915606-742B-4308-83D2-4C4B49818E9F}" name="担当者" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{DCA4F3DD-10AA-409D-B188-096C931AF95A}" name="確認者（名前・日付）" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{7D45CE56-74AE-4451-8304-78DBE28AC7BC}" name="締切日" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{798B18E2-B87D-4D79-88DA-66B830DDD853}" name="テーブル63" displayName="テーブル63" ref="A2:F6" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{798B18E2-B87D-4D79-88DA-66B830DDD853}" name="テーブル63" displayName="テーブル63" ref="A2:F6" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A2:F6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{60DCFAB6-3721-4C2C-8EAB-5ED367587905}" name="各ページ" dataDxfId="16" dataCellStyle="標準"/>
-    <tableColumn id="2" xr3:uid="{17EBDE73-43A0-460C-9E3D-E5B46809E673}" name="項目.1" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{F41B14C2-B690-4F2E-ACB7-D9A0A53954EA}" name="項目.2" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0717DF93-6532-4BD8-BB67-193608F66473}" name="項目.3" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{BB4DE7D6-F791-4BB1-B9F3-6CFE55A866C4}" name="項目.4" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{8EA55D09-4EDE-4AA5-ACA5-046FBDB37447}" name="項目.5" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{60DCFAB6-3721-4C2C-8EAB-5ED367587905}" name="各ページ" dataDxfId="12" dataCellStyle="標準"/>
+    <tableColumn id="2" xr3:uid="{17EBDE73-43A0-460C-9E3D-E5B46809E673}" name="項目.1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F41B14C2-B690-4F2E-ACB7-D9A0A53954EA}" name="項目.2" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{0717DF93-6532-4BD8-BB67-193608F66473}" name="項目.3" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{BB4DE7D6-F791-4BB1-B9F3-6CFE55A866C4}" name="項目.4" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8EA55D09-4EDE-4AA5-ACA5-046FBDB37447}" name="項目.5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16343,15 +16396,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE00D70C-08CE-4CC4-9221-4A7601D3C45C}" name="テーブル635" displayName="テーブル635" ref="A2:F6" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE00D70C-08CE-4CC4-9221-4A7601D3C45C}" name="テーブル635" displayName="テーブル635" ref="A2:F6" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A2:F6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F4AE673-7120-40BE-A1FC-2EBA3CED5687}" name="各ページ" dataDxfId="9" dataCellStyle="標準"/>
-    <tableColumn id="2" xr3:uid="{D3C1BA5A-ACB8-4D40-82A1-66FEC9D8AD56}" name="項目.1" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5787DE7B-A01F-4353-8957-634D032DC2F3}" name="項目.2" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5CD06F8C-E281-4255-B4F6-EE1CFBF4BE9F}" name="項目.3" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{FEDE4466-4CDF-4D4C-89FD-58C4BB482B8E}" name="項目.4" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{42FB32F0-347A-4B37-8374-1A30F06C1FD4}" name="項目.5" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{6F4AE673-7120-40BE-A1FC-2EBA3CED5687}" name="各ページ" dataDxfId="5" dataCellStyle="標準"/>
+    <tableColumn id="2" xr3:uid="{D3C1BA5A-ACB8-4D40-82A1-66FEC9D8AD56}" name="項目.1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5787DE7B-A01F-4353-8957-634D032DC2F3}" name="項目.2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5CD06F8C-E281-4255-B4F6-EE1CFBF4BE9F}" name="項目.3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{FEDE4466-4CDF-4D4C-89FD-58C4BB482B8E}" name="項目.4" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{42FB32F0-347A-4B37-8374-1A30F06C1FD4}" name="項目.5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16873,399 +16926,405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J242"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="6" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="14.77734375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="28" t="s">
-        <v>164</v>
+      <c r="B14" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>156</v>
+      <c r="H23" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="95" t="s">
+      <c r="E29" s="79"/>
+      <c r="F29" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="95" t="s">
+      <c r="E30" s="79"/>
+      <c r="F30" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="95" t="s">
+      <c r="E31" s="79"/>
+      <c r="F31" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="95" t="s">
+      <c r="E32" s="79"/>
+      <c r="F32" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="95" t="s">
+      <c r="E33" s="79"/>
+      <c r="F33" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39" t="s">
+      <c r="E34" s="35"/>
+      <c r="F34" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="91">
+        <v>43017</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39" t="s">
+      <c r="E35" s="35"/>
+      <c r="F35" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="91">
+        <v>43018</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="37" t="s">
         <v>99</v>
       </c>
       <c r="D36" t="s">
         <v>118</v>
       </c>
       <c r="E36"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="87" t="s">
         <v>100</v>
       </c>
       <c r="G36"/>
-      <c r="H36"/>
+      <c r="H36" s="100">
+        <v>43021</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="37" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -17276,953 +17335,941 @@
         <v>100</v>
       </c>
       <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="H37" s="102">
+        <v>43025</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="93" t="s">
+      <c r="E38" s="78"/>
+      <c r="F38" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="92">
+        <v>43016</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43" t="s">
+      <c r="E39" s="38"/>
+      <c r="F39" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="101">
+        <v>43028</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43" t="s">
+      <c r="D40" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="42"/>
-      <c r="H40" s="45"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43" t="s">
+      <c r="D41" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
+      <c r="C43" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="F43" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="78"/>
+      <c r="H43" s="92">
+        <v>43015</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="46"/>
+      <c r="B44" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="84"/>
+      <c r="H44" s="89"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="97">
-        <v>43014</v>
+      <c r="D45" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="91">
+        <v>43021</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="94"/>
+      <c r="D46" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="91">
+        <v>43015</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="96">
-        <v>43021</v>
+      <c r="D47" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="91">
+        <v>43018</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="96">
-        <v>43014</v>
+      <c r="D48" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="91">
+        <v>43021</v>
       </c>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="96">
-        <v>43018</v>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49" s="100">
+        <v>43024</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="96">
-        <v>43021</v>
+      <c r="B50" s="33"/>
+      <c r="C50" s="37"/>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" s="100">
+        <v>43017</v>
       </c>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
-      <c r="J51" s="28" t="s">
-        <v>174</v>
+      <c r="B51" s="33"/>
+      <c r="C51" s="37"/>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" s="100">
+        <v>43036</v>
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" s="100">
+        <v>43024</v>
+      </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="37"/>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="100">
+        <v>43029</v>
+      </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="44"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="37"/>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" s="100">
+        <v>43036</v>
+      </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" s="100">
+        <v>43043</v>
+      </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" s="100">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="2:10" ht="19.5" thickTop="1">
+      <c r="B58" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
+      <c r="C58" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="80"/>
+      <c r="F58" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="80"/>
+      <c r="H58" s="82"/>
     </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+    <row r="59" spans="2:10">
+      <c r="B59" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="83"/>
+      <c r="F59" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="83"/>
+      <c r="H59" s="85"/>
     </row>
-    <row r="58" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B58" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G58" s="50"/>
-      <c r="H58" s="51"/>
-    </row>
-    <row r="59" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-    </row>
-    <row r="60" spans="2:10" ht="19.5" thickTop="1">
-      <c r="B60" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="53" t="s">
+    <row r="60" spans="2:10">
+      <c r="B60" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="85"/>
-      <c r="F60" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="87"/>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60" s="100">
+        <v>43020</v>
+      </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="37" t="s">
+      <c r="B61" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="88"/>
-      <c r="H61" s="90"/>
+      <c r="D61" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="78"/>
+      <c r="F61" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="78"/>
+      <c r="H61" s="92">
+        <v>43016</v>
+      </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="37" t="s">
+      <c r="B62" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="D62" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="78"/>
+      <c r="F62" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="78"/>
+      <c r="H62" s="92">
+        <v>43016</v>
+      </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="37" t="s">
+      <c r="B63" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E63" s="83"/>
-      <c r="F63" s="93" t="s">
-        <v>139</v>
+      <c r="F63" s="84" t="s">
+        <v>138</v>
       </c>
       <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
+      <c r="H63" s="85"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="37" t="s">
+      <c r="B64" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>99</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E64" s="83"/>
-      <c r="F64" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
+      <c r="F64" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="84"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="88"/>
-      <c r="F65" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="90"/>
+      <c r="B65" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="52"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="88"/>
-      <c r="F66" s="89" t="s">
+      <c r="B66" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="38"/>
+      <c r="F66" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="89"/>
-      <c r="H66" s="91"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="98">
+        <v>43043</v>
+      </c>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>127</v>
+      </c>
       <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
+      <c r="F67" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="G67" s="38"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="98">
+        <v>43043</v>
+      </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" ht="19.5" thickBot="1">
       <c r="B68" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G68" s="42"/>
-      <c r="H68" s="58"/>
+      <c r="D68" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="57"/>
+      <c r="H68" s="99">
+        <v>43050</v>
+      </c>
     </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="42"/>
-      <c r="H69" s="58"/>
+    <row r="69" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B69" s="26"/>
+      <c r="C69" s="36"/>
     </row>
-    <row r="70" spans="2:8" ht="19.5" thickBot="1">
+    <row r="70" spans="2:8" ht="19.5" thickTop="1">
       <c r="B70" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="63"/>
+        <v>162</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="60"/>
+      <c r="F70" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="60"/>
+      <c r="H70" s="62"/>
     </row>
-    <row r="71" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B71" s="29"/>
-      <c r="C71" s="39"/>
+    <row r="71" spans="2:8">
+      <c r="B71" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="38"/>
+      <c r="F71" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="38"/>
+      <c r="H71" s="54"/>
     </row>
-    <row r="72" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B72" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="53" t="s">
+    <row r="72" spans="2:8">
+      <c r="B72" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="65"/>
-      <c r="F72" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="G72" s="65"/>
-      <c r="H72" s="67"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="52"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="42"/>
-      <c r="H73" s="58"/>
+      <c r="B73" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="35"/>
+      <c r="F73" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="96">
+        <v>43018</v>
+      </c>
     </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="56"/>
+    <row r="74" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B74" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="65"/>
+      <c r="F74" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="66"/>
+      <c r="H74" s="97">
+        <v>43023</v>
+      </c>
     </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="39" t="s">
+    <row r="75" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B75" s="68"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B76" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="57"/>
+      <c r="C76" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="50"/>
+      <c r="F76" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G76" s="49"/>
+      <c r="H76" s="70"/>
     </row>
-    <row r="76" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B76" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
+    <row r="77" spans="2:8">
+      <c r="B77" s="71"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="53"/>
     </row>
-    <row r="77" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B77" s="73"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-    </row>
-    <row r="78" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B78" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G78" s="53"/>
-      <c r="H78" s="75"/>
+    <row r="78" spans="2:8">
+      <c r="B78" s="71"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="53"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="76"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="39"/>
-      <c r="H79" s="57"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="53"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="76"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="39" t="s">
+      <c r="B80" s="73"/>
+      <c r="C80" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="G80" s="39"/>
-      <c r="H80" s="57"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="78"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="57"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="53"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="78"/>
-      <c r="C82" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G82" s="39"/>
-      <c r="H82" s="57"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="35"/>
+      <c r="F82" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="53"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="78"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="38"/>
-      <c r="F83" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="57"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="53"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="78"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="57"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="35"/>
+      <c r="F84" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="53"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="78"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="57"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G85" s="36"/>
+      <c r="H85" s="53"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="78"/>
-      <c r="C86" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G86" s="39"/>
-      <c r="H86" s="57"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="53"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="78"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38" t="s">
+      <c r="B87" s="73"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="53"/>
+    </row>
+    <row r="88" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B88" s="74"/>
+      <c r="C88" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G87" s="39"/>
-      <c r="H87" s="57"/>
+      <c r="D88" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="G88" s="66"/>
+      <c r="H88" s="67"/>
     </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="78"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G88" s="39"/>
-      <c r="H88" s="57"/>
+    <row r="89" spans="2:8" ht="19.5" thickTop="1">
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
     </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="78"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="57"/>
+    <row r="90" spans="2:8">
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
     </row>
-    <row r="90" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B90" s="79"/>
-      <c r="C90" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="70"/>
-      <c r="F90" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="72"/>
-    </row>
-    <row r="91" spans="2:8" ht="19.5" thickTop="1">
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
+    <row r="91" spans="2:8">
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" spans="2:8">
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
     </row>
     <row r="97" spans="6:8">
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="98" spans="6:8">
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
     </row>
     <row r="99" spans="6:8">
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" spans="6:8">
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="101" spans="6:8">
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
     </row>
     <row r="102" spans="6:8">
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
     </row>
     <row r="103" spans="6:8">
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
     </row>
     <row r="104" spans="6:8">
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
     </row>
     <row r="105" spans="6:8">
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" spans="6:8">
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="6:8">
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" spans="6:8">
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
     </row>
     <row r="109" spans="6:8">
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
     </row>
     <row r="110" spans="6:8">
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
     </row>
     <row r="111" spans="6:8">
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="6:8">
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="6:8">
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
     </row>
     <row r="114" spans="6:8">
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
     </row>
     <row r="115" spans="6:8">
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
     </row>
-    <row r="116" spans="6:8">
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-    </row>
-    <row r="117" spans="6:8">
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="28" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18260,7 +18307,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD24"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18499,7 +18546,7 @@
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
@@ -18516,30 +18563,117 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="26" spans="1:9" s="25" customFormat="1">
+      <c r="B26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="27" spans="1:9" s="25" customFormat="1">
+      <c r="B27" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="13" t="s">
-        <v>27</v>
-      </c>
+    <row r="29" spans="1:9" s="25" customFormat="1">
+      <c r="B29" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" s="25" customFormat="1">
+      <c r="B30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="32" spans="1:9" s="25" customFormat="1">
+      <c r="B32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="2:8" s="25" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B33" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="7" t="s">
@@ -18957,77 +19091,77 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickTop="1"/>
     <row r="17" spans="2:3">
-      <c r="B17" s="80" t="s">
-        <v>166</v>
+      <c r="B17" s="75" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="80"/>
+      <c r="B18" s="75"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
-        <v>165</v>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="C20" s="81" t="s">
-        <v>171</v>
+      <c r="C20" s="76" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="80" t="s">
-        <v>168</v>
+      <c r="C22" s="75" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="81" t="s">
-        <v>167</v>
+      <c r="C24" s="76" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="80" t="s">
-        <v>169</v>
+      <c r="C25" s="75" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="80"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="82" t="s">
-        <v>172</v>
+      <c r="C27" s="77" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="C28" s="80" t="s">
-        <v>170</v>
+      <c r="C28" s="75" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="80"/>
+      <c r="C29" s="75"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="80"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="80"/>
+      <c r="C31" s="75"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="C32" s="80"/>
+      <c r="C32" s="75"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="C33" s="80"/>
+      <c r="C33" s="75"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="C34" s="80"/>
+      <c r="C34" s="75"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="15" t="s">
@@ -19050,14 +19184,14 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26" t="s">
+      <c r="D41" s="95"/>
+      <c r="E41" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="95"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="15" t="s">
@@ -35481,10 +35615,10 @@
       <c r="XFD64" s="17"/>
     </row>
     <row r="67" spans="1:2" ht="24.75" thickBot="1">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="93"/>
     </row>
     <row r="68" spans="1:2" ht="19.5" thickTop="1"/>
   </sheetData>

--- a/プランナー/青山/進捗表.xlsx
+++ b/プランナー/青山/進捗表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2140059\Desktop\aoyama\プランナー\青山\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2140059\Desktop\青山\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -228,7 +228,119 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{018BDFC7-B272-46C5-BF97-4ED76E40F801}">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{103A8D6A-F91E-4351-AAD9-CECDBB1694A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（1）は、
+キャラクターの強さが「中位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{04E515F5-DD60-4D97-8781-A9182B3C3211}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（2）は、
+キャラクターの強さが「最上位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{5596380B-D5DA-45FC-8E2F-661E8A877B05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（3）は、
+キャラクターの強さが「最下位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{D842982B-732A-4111-9CD6-AA7604CCDD31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（1）は、
+キャラクターの強さが「中位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{182ABA86-1279-4041-B977-A5DEB32167FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（2）は、
+キャラクターの強さが「最上位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{82EF3801-CC62-45B0-8DD9-34B197FD95D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラフ画（3）は、
+キャラクターの強さが「最下位」のラフ画を作成してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{BE0DD754-67B7-4C44-89DB-EAB1F7901054}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>モデルは、テクスチャー貼り付けまで。
+ボーンとモーションは後で。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{6C1A36C0-2244-4FA1-BB18-FE6D1E5097FB}">
       <text>
         <r>
           <rPr>
@@ -246,153 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{103A8D6A-F91E-4351-AAD9-CECDBB1694A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（1）は、
-キャラクターの強さが「中位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{04E515F5-DD60-4D97-8781-A9182B3C3211}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（2）は、
-キャラクターの強さが「最上位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D45" authorId="0" shapeId="0" xr:uid="{5596380B-D5DA-45FC-8E2F-661E8A877B05}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（3）は、
-キャラクターの強さが「最下位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{D842982B-732A-4111-9CD6-AA7604CCDD31}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（1）は、
-キャラクターの強さが「中位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{182ABA86-1279-4041-B977-A5DEB32167FF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（2）は、
-キャラクターの強さが「最上位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{82EF3801-CC62-45B0-8DD9-34B197FD95D3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>ラフ画（3）は、
-キャラクターの強さが「最下位」のラフ画を作成してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D49" authorId="0" shapeId="0" xr:uid="{4EF702BD-AD65-4C4E-99C9-FE2DBFED3601}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>3Dモデルは、
-3Dにする事と、色をつける事をしてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="0" shapeId="0" xr:uid="{C1745FFD-AAAF-49D5-893E-FFB7AF410F18}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>3Dモデルは、
-3Dにする事と、色をつける事をしてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{6C1A36C0-2244-4FA1-BB18-FE6D1E5097FB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>モーションに関しては、
-1.攻撃モーション
-2.移動モーション
-3.待機モーション</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{A07EF8E5-39B6-491F-8C1D-8E89FC5DF63D}">
+    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{A07EF8E5-39B6-491F-8C1D-8E89FC5DF63D}">
       <text>
         <r>
           <rPr>
@@ -407,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0" shapeId="0" xr:uid="{4B54FEA1-797C-4DF7-80FE-B4877FE7C9E7}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{4B54FEA1-797C-4DF7-80FE-B4877FE7C9E7}">
       <text>
         <r>
           <rPr>
@@ -422,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{66BE3216-A0D3-41A5-828C-5E9D54FD1B6D}">
+    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{66BE3216-A0D3-41A5-828C-5E9D54FD1B6D}">
       <text>
         <r>
           <rPr>
@@ -438,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0" shapeId="0" xr:uid="{32A0DE69-8D9F-455B-8DAB-7870819E90CA}">
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{32A0DE69-8D9F-455B-8DAB-7870819E90CA}">
       <text>
         <r>
           <rPr>
@@ -456,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{1E3ADEEC-C292-4E85-BA22-20833B6477A8}">
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{1E3ADEEC-C292-4E85-BA22-20833B6477A8}">
       <text>
         <r>
           <rPr>
@@ -472,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D63" authorId="0" shapeId="0" xr:uid="{609B26EE-44C3-41B2-9B2A-71C40A3D4B9A}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{609B26EE-44C3-41B2-9B2A-71C40A3D4B9A}">
       <text>
         <r>
           <rPr>
@@ -489,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{974B0C13-E614-4C9F-B52A-05A59582A18A}">
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{974B0C13-E614-4C9F-B52A-05A59582A18A}">
       <text>
         <r>
           <rPr>
@@ -506,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{77DA1697-B8D5-44A7-8DDE-F740DDC14E6D}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{77DA1697-B8D5-44A7-8DDE-F740DDC14E6D}">
       <text>
         <r>
           <rPr>
@@ -522,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{E9919F95-4D84-4B72-AA4E-0747576F06C2}">
+    <comment ref="D82" authorId="0" shapeId="0" xr:uid="{E9919F95-4D84-4B72-AA4E-0747576F06C2}">
       <text>
         <r>
           <rPr>
@@ -537,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{E51C710C-7CB5-4399-8B23-20087F5A98B3}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{E51C710C-7CB5-4399-8B23-20087F5A98B3}">
       <text>
         <r>
           <rPr>
@@ -556,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{E481C1A9-5783-4577-BFD0-9D471C01A523}">
+    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{E481C1A9-5783-4577-BFD0-9D471C01A523}">
       <text>
         <r>
           <rPr>
@@ -576,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D82" authorId="0" shapeId="0" xr:uid="{A8F24FDC-0837-450E-9578-C1B934D5437E}">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{A8F24FDC-0837-450E-9578-C1B934D5437E}">
       <text>
         <r>
           <rPr>
@@ -594,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{E702557F-060D-4CC0-B9BB-3FB136129707}">
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{E702557F-060D-4CC0-B9BB-3FB136129707}">
       <text>
         <r>
           <rPr>
@@ -614,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{A7BCABDE-48BD-4ED5-8A12-B527978310B1}">
+    <comment ref="D89" authorId="0" shapeId="0" xr:uid="{A7BCABDE-48BD-4ED5-8A12-B527978310B1}">
       <text>
         <r>
           <rPr>
@@ -633,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{EF48140B-D336-4BA7-9453-0D3C52A3A168}">
+    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{EF48140B-D336-4BA7-9453-0D3C52A3A168}">
       <text>
         <r>
           <rPr>
@@ -651,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{7794C56B-DF0E-495D-B87A-46659E553466}">
+    <comment ref="D92" authorId="0" shapeId="0" xr:uid="{7794C56B-DF0E-495D-B87A-46659E553466}">
       <text>
         <r>
           <rPr>
@@ -745,12 +711,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{018BDFC7-B272-46C5-BF97-4ED76E40F801}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>モーションに関しては、
+1.攻撃モーション
+2.移動モーション
+3.待機モーション</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="187">
   <si>
     <t>サイトマップ</t>
   </si>
@@ -1431,22 +1415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>サブペー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完成目標：ひとりプレイが出来る。(戦闘と陣取りが出来る。)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1533,31 +1501,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１１月までに、上手くいったら体</t>
-  </si>
-  <si>
-    <t>P：3Dモデル（ナイフ＿1）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P：3Dモデル（ナイフ＿2）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P：3Dモデル（ナイフ＿3）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P：3Dモデル（フォーク＿1）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P：3Dモデル（フォーク＿2）</t>
-  </si>
-  <si>
-    <t>P：3Dモデル（フォーク＿3）</t>
-  </si>
-  <si>
     <t>P：モーション（ナイフ）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1565,12 +1508,80 @@
     <t>P：モーション（フォーク）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>サブペー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>その他</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（1P＿素体）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（2P＿素体）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（武器＿ナイフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（武器＿フォーク）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（盾）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿最上位ナイフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿中位ナイフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿最下位ナイフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿最上位フォーク）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿中位フォーク）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：3Dモデル（帽子＿最下位フォーク）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーンとモーションは後で</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ：コンセプトアート</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1757,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2027,7 +2066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2103,155 +2142,38 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2262,49 +2184,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
@@ -2316,25 +2199,199 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="31" fillId="3" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="31" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="31" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="35" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="34" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="35" fillId="3" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="35" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="32" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="35" fillId="3" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15910,13 +15967,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1118908</xdr:colOff>
+      <xdr:colOff>939614</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1071282</xdr:colOff>
+      <xdr:colOff>891988</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -16348,8 +16405,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3968D38F-F116-458B-97E1-A4F5A5771496}" name="テーブル1" displayName="テーブル1" ref="B28:H115" totalsRowShown="0">
-  <autoFilter ref="B28:H115" xr:uid="{E52E9663-BD2C-4744-89D9-CE1463DF218E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3968D38F-F116-458B-97E1-A4F5A5771496}" name="テーブル1" displayName="テーブル1" ref="B28:H119" totalsRowShown="0">
+  <autoFilter ref="B28:H119" xr:uid="{E52E9663-BD2C-4744-89D9-CE1463DF218E}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{5FB983D2-3846-4804-90A3-95DB3059BD9B}" name="メイン階層"/>
     <tableColumn id="2" xr3:uid="{F5C484FF-9C7A-472F-9B95-6DE3638EFF53}" name="サブ階層"/>
@@ -16926,1350 +16983,1394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="14.77734375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="45" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="25" t="s">
-        <v>163</v>
+      <c r="B14" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="45" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="45" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="45" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" thickBot="1">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="90" t="s">
+      <c r="E29" s="50"/>
+      <c r="F29" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="90" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="79" t="s">
+      <c r="D31" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="90" t="s">
+      <c r="E31" s="50"/>
+      <c r="F31" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="90" t="s">
+      <c r="E32" s="50"/>
+      <c r="F32" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="90" t="s">
+      <c r="E33" s="50"/>
+      <c r="F33" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36" t="s">
+      <c r="E34" s="57"/>
+      <c r="F34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="91">
+      <c r="G34" s="58"/>
+      <c r="H34" s="59">
         <v>43017</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36" t="s">
+      <c r="E35" s="57"/>
+      <c r="F35" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="91">
+      <c r="G35" s="58"/>
+      <c r="H35" s="59">
         <v>43018</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E36"/>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G36"/>
-      <c r="H36" s="100">
+      <c r="H36" s="60">
         <v>43021</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="102">
+      <c r="G37" s="62"/>
+      <c r="H37" s="63">
         <v>43025</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="88" t="s">
+      <c r="E38" s="48"/>
+      <c r="F38" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="92">
+      <c r="G38" s="48"/>
+      <c r="H38" s="65">
         <v>43016</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39" t="s">
+      <c r="E39" s="61"/>
+      <c r="F39" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="101">
+      <c r="G39" s="62"/>
+      <c r="H39" s="63">
         <v>43028</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="41"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="C41" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="65">
+        <v>43015</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" s="33"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="42"/>
+      <c r="B42" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="69"/>
+      <c r="F42" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="88" t="s">
+      <c r="D43" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="92">
-        <v>43015</v>
+      <c r="G43" s="58"/>
+      <c r="H43" s="59">
+        <v>43021</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84" t="s">
+      <c r="D44" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="89"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59">
+        <v>43015</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36" t="s">
+      <c r="D45" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="91">
-        <v>43021</v>
+      <c r="G45" s="40"/>
+      <c r="H45" s="108">
+        <v>43018</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36" t="s">
+      <c r="D46" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="91">
-        <v>43015</v>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59">
+        <v>43021</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="57"/>
+      <c r="F47" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="91">
-        <v>43018</v>
+      <c r="G47" s="58"/>
+      <c r="H47" s="107">
+        <v>43016</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="57"/>
+      <c r="F48" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="91">
-        <v>43021</v>
+      <c r="G48" s="58"/>
+      <c r="H48" s="107">
+        <v>43016</v>
       </c>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49" s="87" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="57"/>
+      <c r="F49" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G49"/>
-      <c r="H49" s="100">
-        <v>43024</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>172</v>
+      <c r="G49" s="58"/>
+      <c r="H49" s="107">
+        <v>43019</v>
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="33"/>
-      <c r="C50" s="37"/>
-      <c r="D50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50" s="87" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="57"/>
+      <c r="F50" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G50"/>
-      <c r="H50" s="100">
-        <v>43017</v>
+      <c r="G50" s="58"/>
+      <c r="H50" s="107">
+        <v>43019</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="33"/>
-      <c r="C51" s="37"/>
-      <c r="D51" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" s="87" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="57"/>
+      <c r="F51" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G51"/>
-      <c r="H51" s="100">
-        <v>43036</v>
+      <c r="G51" s="58"/>
+      <c r="H51" s="107">
+        <v>43019</v>
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" s="87" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="57"/>
+      <c r="F52" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G52"/>
-      <c r="H52" s="100">
-        <v>43024</v>
+      <c r="G52" s="58"/>
+      <c r="H52" s="107">
+        <v>43023</v>
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="33"/>
-      <c r="C53" s="37"/>
-      <c r="D53" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" s="87" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="57"/>
+      <c r="F53" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G53"/>
-      <c r="H53" s="100">
-        <v>43029</v>
+      <c r="G53" s="58"/>
+      <c r="H53" s="107">
+        <v>43026</v>
       </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="33"/>
-      <c r="C54" s="37"/>
-      <c r="D54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" s="87" t="s">
+      <c r="B54" s="54"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="57"/>
+      <c r="F54" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G54"/>
-      <c r="H54" s="100">
-        <v>43036</v>
+      <c r="G54" s="58"/>
+      <c r="H54" s="107">
+        <v>43029</v>
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" s="87" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G55"/>
-      <c r="H55" s="100">
-        <v>43043</v>
+      <c r="G55" s="58"/>
+      <c r="H55" s="107">
+        <v>43023</v>
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="57"/>
+      <c r="F56" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="58"/>
+      <c r="H56" s="107">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="54"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="57"/>
+      <c r="F57" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="58"/>
+      <c r="H57" s="107">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C58" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D56" t="s">
-        <v>180</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" s="87" t="s">
+      <c r="D58" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G56"/>
-      <c r="H56" s="100">
-        <v>43043</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58" spans="2:10" ht="19.5" thickTop="1">
-      <c r="B58" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="80"/>
-      <c r="H58" s="82"/>
+      <c r="H58" s="60">
+        <v>43039</v>
+      </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="60">
+        <v>43039</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="2:10" ht="19.5" thickTop="1">
+      <c r="B61" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C61" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="84" t="s">
+      <c r="D61" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="G59" s="83"/>
-      <c r="H59" s="85"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60"/>
-      <c r="H60" s="100">
-        <v>43020</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="78"/>
-      <c r="H61" s="92">
-        <v>43016</v>
-      </c>
+      <c r="G61" s="74"/>
+      <c r="H61" s="76"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="88" t="s">
+      <c r="D62" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="69"/>
+      <c r="F62" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="92">
-        <v>43016</v>
-      </c>
+      <c r="G62" s="69"/>
+      <c r="H62" s="78"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84" t="s">
+      <c r="D63" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="G63" s="83"/>
-      <c r="H63" s="85"/>
+      <c r="H63" s="60">
+        <v>43020</v>
+      </c>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="84" t="s">
+      <c r="D64" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="84"/>
-      <c r="H64" s="86"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="65">
+        <v>43016</v>
+      </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="52"/>
+      <c r="C65" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="48"/>
+      <c r="H65" s="65">
+        <v>43016</v>
+      </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="98">
-        <v>43043</v>
-      </c>
+      <c r="C66" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="69"/>
+      <c r="H66" s="78"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="69"/>
+      <c r="F67" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="70"/>
+      <c r="H67" s="79"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="80"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39" t="s">
+      <c r="D69" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="98">
-        <v>43043</v>
+      <c r="G69" s="61"/>
+      <c r="H69" s="81">
+        <v>43047</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B68" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58" t="s">
+    <row r="70" spans="2:8">
+      <c r="B70" s="77"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="57"/>
-      <c r="H68" s="99">
-        <v>43050</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B69" s="26"/>
-      <c r="C69" s="36"/>
-    </row>
-    <row r="70" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B70" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="60"/>
-      <c r="F70" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="G70" s="60"/>
-      <c r="H70" s="62"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="81">
+        <v>43047</v>
+      </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="61"/>
+      <c r="H71" s="81">
+        <v>43043</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B72" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="84"/>
+      <c r="F72" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="84"/>
+      <c r="H72" s="86">
+        <v>43050</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B73" s="46"/>
+      <c r="C73" s="58"/>
+    </row>
+    <row r="74" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B74" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="88"/>
+      <c r="F74" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="88"/>
+      <c r="H74" s="106">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C75" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D75" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39" t="s">
+      <c r="E75" s="61"/>
+      <c r="F75" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G71" s="38"/>
-      <c r="H71" s="54"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="81">
+        <v>43019</v>
+      </c>
     </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="63" t="s">
+    <row r="76" spans="2:8">
+      <c r="B76" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C76" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="52"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="96">
-        <v>43018</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B74" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E74" s="65"/>
-      <c r="F74" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="G74" s="66"/>
-      <c r="H74" s="97">
-        <v>43023</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
-      <c r="B75" s="68"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-    </row>
-    <row r="76" spans="2:8" ht="19.5" thickTop="1">
-      <c r="B76" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="70"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="80"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="71"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="36" t="s">
+      <c r="B77" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="57"/>
+      <c r="F77" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="58"/>
+      <c r="H77" s="91">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B78" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="93"/>
+      <c r="F78" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="94"/>
+      <c r="H78" s="95">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="20.25" thickTop="1" thickBot="1">
+      <c r="B79" s="96"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+    </row>
+    <row r="80" spans="2:8" ht="19.5" thickTop="1">
+      <c r="B80" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="98"/>
+      <c r="F80" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="53"/>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="71"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="53"/>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="73"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="53"/>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="73"/>
-      <c r="C80" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="53"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="99"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="73"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="36" t="s">
+      <c r="B81" s="100"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="57"/>
+      <c r="F81" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="53"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="102"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="73"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="35"/>
-      <c r="F82" s="36" t="s">
+      <c r="B82" s="100"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="57"/>
+      <c r="F82" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="53"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="102"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="73"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="53"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="102"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="73"/>
-      <c r="C84" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="35"/>
-      <c r="F84" s="36" t="s">
+      <c r="B84" s="103"/>
+      <c r="C84" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="53"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="102"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="73"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="36" t="s">
+      <c r="B85" s="103"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" s="57"/>
+      <c r="F85" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G85" s="36"/>
-      <c r="H85" s="53"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="102"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="73"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="36" t="s">
+      <c r="B86" s="103"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="57"/>
+      <c r="F86" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G86" s="36"/>
-      <c r="H86" s="53"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="102"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="73"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="53"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="102"/>
     </row>
-    <row r="88" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B88" s="74"/>
-      <c r="C88" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="D88" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="65"/>
-      <c r="F88" s="66" t="s">
+    <row r="88" spans="2:8">
+      <c r="B88" s="103"/>
+      <c r="C88" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="57"/>
+      <c r="F88" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="G88" s="66"/>
-      <c r="H88" s="67"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="102"/>
     </row>
-    <row r="89" spans="2:8" ht="19.5" thickTop="1">
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
+    <row r="89" spans="2:8">
+      <c r="B89" s="103"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="57"/>
+      <c r="F89" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="58"/>
+      <c r="H89" s="102"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="57"/>
+      <c r="F90" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="58"/>
+      <c r="H90" s="102"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="102"/>
     </row>
-    <row r="92" spans="2:8">
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
+    <row r="92" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B92" s="104"/>
+      <c r="C92" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="93"/>
+      <c r="F92" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92" s="94"/>
+      <c r="H92" s="105"/>
     </row>
-    <row r="93" spans="2:8">
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
+    <row r="93" spans="2:8" ht="19.5" thickTop="1">
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="2:8">
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="6:8">
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
     </row>
     <row r="98" spans="6:8">
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
     </row>
     <row r="99" spans="6:8">
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
     </row>
     <row r="100" spans="6:8">
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="6:8">
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="26"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
     </row>
     <row r="102" spans="6:8">
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
     </row>
     <row r="103" spans="6:8">
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="6:8">
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
     </row>
     <row r="105" spans="6:8">
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
     </row>
     <row r="106" spans="6:8">
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
     </row>
     <row r="107" spans="6:8">
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
     </row>
     <row r="108" spans="6:8">
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="6:8">
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
     </row>
     <row r="110" spans="6:8">
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="111" spans="6:8">
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="6:8">
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
     </row>
     <row r="113" spans="6:8">
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
     </row>
     <row r="114" spans="6:8">
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
     </row>
     <row r="115" spans="6:8">
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="25" t="s">
+    <row r="116" spans="6:8">
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+    </row>
+    <row r="117" spans="6:8">
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+    </row>
+    <row r="118" spans="6:8">
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+    </row>
+    <row r="119" spans="6:8">
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="45" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18306,8 +18407,8 @@
   <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD33"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18568,112 +18669,146 @@
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="26" spans="1:9" s="25" customFormat="1">
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:9" s="24" customFormat="1">
+      <c r="B26" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
     </row>
-    <row r="27" spans="1:9" s="25" customFormat="1">
-      <c r="B27" s="33" t="s">
+    <row r="27" spans="1:9" s="24" customFormat="1">
+      <c r="B27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="25" customFormat="1">
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="1:9" s="24" customFormat="1">
+      <c r="B29" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:9" s="25" customFormat="1">
-      <c r="B30" s="33" t="s">
+    <row r="30" spans="1:9" s="24" customFormat="1">
+      <c r="B30" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
     </row>
-    <row r="32" spans="1:9" s="25" customFormat="1">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:9" s="24" customFormat="1">
+      <c r="B32" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="2:8" s="25" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B33" s="43" t="s">
+    <row r="33" spans="2:8" s="24" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B33" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46" t="s">
+      <c r="E33" s="33"/>
+      <c r="F33" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="35" spans="2:8" s="45" customFormat="1">
+      <c r="B35" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="66"/>
+    </row>
+    <row r="36" spans="2:8" s="45" customFormat="1">
+      <c r="B36" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="62"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="7" t="s">
@@ -19032,7 +19167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -19091,77 +19226,77 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="19.5" thickTop="1"/>
     <row r="17" spans="2:3">
-      <c r="B17" s="75" t="s">
-        <v>165</v>
+      <c r="B17" s="36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="75"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="75"/>
-      <c r="C19" s="75" t="s">
-        <v>164</v>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="C20" s="76" t="s">
-        <v>170</v>
+      <c r="C20" s="37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="75" t="s">
-        <v>167</v>
+      <c r="C22" s="36" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="76" t="s">
-        <v>166</v>
+      <c r="C24" s="37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="75" t="s">
-        <v>168</v>
+      <c r="C25" s="36" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="75"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="C27" s="77" t="s">
-        <v>171</v>
+      <c r="C27" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="C28" s="75" t="s">
-        <v>169</v>
+      <c r="C28" s="36" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="C29" s="75"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="C30" s="75"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="C31" s="75"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="C32" s="75"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="C33" s="75"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="C34" s="75"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="15" t="s">
@@ -19184,14 +19319,14 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="95"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="15" t="s">
@@ -35615,10 +35750,10 @@
       <c r="XFD64" s="17"/>
     </row>
     <row r="67" spans="1:2" ht="24.75" thickBot="1">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="93"/>
+      <c r="B67" s="41"/>
     </row>
     <row r="68" spans="1:2" ht="19.5" thickTop="1"/>
   </sheetData>
